--- a/Proyectos Evaluados/Tatara/Antecedentes PF - Tatara_V2.xlsx
+++ b/Proyectos Evaluados/Tatara/Antecedentes PF - Tatara_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephano Chaura\Desktop\ejecucion-modelos\Proyectos Evaluados\Tatara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AA59C3-E715-4245-AD2F-6812B82F04FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DC616B-8D1C-4D60-9497-FB76E914495C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14475" windowHeight="15600" firstSheet="1" activeTab="4" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Caso BESS" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="65">
   <si>
     <t>Nodo de Referencia (DNV)</t>
   </si>
@@ -233,22 +233,31 @@
     <t>BESS Standalone</t>
   </si>
   <si>
-    <t>30 MWp 60 MWh (2 hrs)</t>
+    <t>PV + BESS Hibrido</t>
   </si>
   <si>
-    <t>30 MWp 90 MWh (3 hrs)</t>
+    <t>30 MW 60 MWh (2 hrs)</t>
   </si>
   <si>
-    <t>30 MWp 120 MWh (4 hrs)</t>
+    <t>30 MW 90 MWh (3 hrs)</t>
   </si>
   <si>
-    <t>30 MWp 150 MWh (5 hrs)</t>
+    <t>30 MW 120 MWh (4 hrs)</t>
   </si>
   <si>
-    <t>30 MWp 180 MWh (6 hrs)</t>
+    <t>30 MW 150 MWh (5 hrs)</t>
   </si>
   <si>
-    <t>PV + BESS Hibrido</t>
+    <t>30 MW 180 MWh (6 hrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV 30 MWp, BESS 30 MW 90 MWh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV 30 MWp, BESS 30 MW 120 MWh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV 27 MWp, BESS 30 MW 90 MWh </t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1601,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72050,7 +72059,7 @@
   <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72164,7 +72173,7 @@
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="18">
         <v>0.1313</v>
@@ -72184,7 +72193,7 @@
     </row>
     <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="16">
         <v>0.14499999999999999</v>
@@ -72204,7 +72213,7 @@
     </row>
     <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="18">
         <v>0.1512</v>
@@ -72224,7 +72233,7 @@
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="16">
         <v>0.1381</v>
@@ -72244,7 +72253,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="18">
         <v>0.13020000000000001</v>
@@ -72264,7 +72273,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -72273,7 +72282,9 @@
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
+      <c r="B14" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="17"/>
@@ -72281,7 +72292,9 @@
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
+      <c r="B15" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="15"/>
@@ -72289,7 +72302,9 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
+      <c r="B16" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="17"/>
@@ -72297,7 +72312,9 @@
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
+      <c r="B17" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="15"/>
@@ -72330,6 +72347,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DDFFB1C384AD0D449AD4E90194E61AC8" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a27fb05d60a08da7ae088f3f301ad3c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b9b9037-28f8-4200-a961-13fb81bc61ed" xmlns:ns3="9973b7cd-78b1-41ec-8b66-6143e90e5574" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2dbfc82655d1d9f1e7c6c1a0c8843bc" ns2:_="" ns3:_="">
     <xsd:import namespace="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
@@ -72590,15 +72616,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D6E3B29-6441-466D-950A-CE8D2F0401D8}">
   <ds:schemaRefs>
@@ -72611,6 +72628,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC21C0BF-6CEF-427E-B508-C77C090066B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B5310A-16CC-480B-BDC5-BE63B31AAC2F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -72627,12 +72652,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC21C0BF-6CEF-427E-B508-C77C090066B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Proyectos Evaluados/Tatara/Antecedentes PF - Tatara_V2.xlsx
+++ b/Proyectos Evaluados/Tatara/Antecedentes PF - Tatara_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephano Chaura\Desktop\ejecucion-modelos\Proyectos Evaluados\Tatara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DC616B-8D1C-4D60-9497-FB76E914495C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D22D314-8EAE-4A5E-9B74-B19A6640C582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14475" windowHeight="15600" firstSheet="1" activeTab="4" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Caso BESS" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="66">
   <si>
     <t>Nodo de Referencia (DNV)</t>
   </si>
@@ -251,13 +251,16 @@
     <t>30 MW 180 MWh (6 hrs)</t>
   </si>
   <si>
-    <t xml:space="preserve">PV 30 MWp, BESS 30 MW 90 MWh </t>
-  </si>
-  <si>
     <t xml:space="preserve">PV 30 MWp, BESS 30 MW 120 MWh </t>
   </si>
   <si>
     <t xml:space="preserve">PV 27 MWp, BESS 30 MW 90 MWh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV 27 MWp, BESS 30 MW 120 MWh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV 27 MWp, BESS 30 MW 150 MWh </t>
   </si>
 </sst>
 </file>
@@ -1600,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD17015-A551-4C2B-85B3-9418ADFEA835}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72058,8 +72061,8 @@
   </sheetPr>
   <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72283,27 +72286,47 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+        <v>63</v>
+      </c>
+      <c r="C14" s="18">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0.1002</v>
+      </c>
+      <c r="E14" s="17">
+        <v>8</v>
+      </c>
+      <c r="F14" s="17">
+        <v>7.9</v>
+      </c>
+      <c r="G14" s="17">
+        <v>61.6</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+        <v>64</v>
+      </c>
+      <c r="C15" s="16">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.1027</v>
+      </c>
+      <c r="E15" s="15">
+        <v>9.56</v>
+      </c>
+      <c r="F15" s="15">
+        <v>7.6</v>
+      </c>
+      <c r="G15" s="15">
+        <v>70.099999999999994</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -72313,7 +72336,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -72347,15 +72370,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DDFFB1C384AD0D449AD4E90194E61AC8" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a27fb05d60a08da7ae088f3f301ad3c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b9b9037-28f8-4200-a961-13fb81bc61ed" xmlns:ns3="9973b7cd-78b1-41ec-8b66-6143e90e5574" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2dbfc82655d1d9f1e7c6c1a0c8843bc" ns2:_="" ns3:_="">
     <xsd:import namespace="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
@@ -72616,6 +72630,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D6E3B29-6441-466D-950A-CE8D2F0401D8}">
   <ds:schemaRefs>
@@ -72628,14 +72651,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC21C0BF-6CEF-427E-B508-C77C090066B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B5310A-16CC-480B-BDC5-BE63B31AAC2F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -72652,4 +72667,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC21C0BF-6CEF-427E-B508-C77C090066B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Proyectos Evaluados/Tatara/Antecedentes PF - Tatara_V2.xlsx
+++ b/Proyectos Evaluados/Tatara/Antecedentes PF - Tatara_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephano Chaura\Desktop\ejecucion-modelos\Proyectos Evaluados\Tatara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D22D314-8EAE-4A5E-9B74-B19A6640C582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17023B62-BB41-4F30-AD73-AA67444526B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="2" activeTab="4" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Caso BESS" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="70">
   <si>
     <t>Nodo de Referencia (DNV)</t>
   </si>
@@ -251,16 +251,165 @@
     <t>30 MW 180 MWh (6 hrs)</t>
   </si>
   <si>
-    <t xml:space="preserve">PV 30 MWp, BESS 30 MW 120 MWh </t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 27 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 90 MWh  (3 hrs)</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">PV 27 MWp, BESS 30 MW 90 MWh </t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 27 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 120 MWh (4 hrs)</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">PV 27 MWp, BESS 30 MW 120 MWh </t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 27 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 150 MWh (5 hrs)</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">PV 27 MWp, BESS 30 MW 150 MWh </t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 30 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 90 MWh (3 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 30 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 120 MWh (4 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 30 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 150 MWh (5 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 33 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 90 MWh  (3 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PV 33 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 90 MWh  (3 hrs)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -482,7 +631,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -577,6 +726,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1603,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD17015-A551-4C2B-85B3-9418ADFEA835}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72059,10 +72214,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B2:G18"/>
+  <dimension ref="B2:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72286,71 +72441,153 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="18">
-        <v>9.3200000000000005E-2</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="D14" s="18">
-        <v>0.1002</v>
+        <v>0.1031</v>
       </c>
       <c r="E14" s="17">
-        <v>8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F14" s="17">
         <v>7.9</v>
       </c>
       <c r="G14" s="17">
-        <v>61.6</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="16">
-        <v>9.5799999999999996E-2</v>
+        <v>9.9699999999999997E-2</v>
       </c>
       <c r="D15" s="16">
-        <v>0.1027</v>
+        <v>0.1062</v>
       </c>
       <c r="E15" s="15">
-        <v>9.56</v>
+        <v>10.7</v>
       </c>
       <c r="F15" s="15">
         <v>7.6</v>
       </c>
       <c r="G15" s="15">
-        <v>70.099999999999994</v>
+        <v>68.400000000000006</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="18">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0.1012</v>
+      </c>
+      <c r="E16" s="17">
+        <v>10.1</v>
+      </c>
+      <c r="F16" s="17">
+        <v>7.8</v>
+      </c>
+      <c r="G16" s="17">
+        <v>76.5</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+        <v>65</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.10059999999999999</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.1074</v>
+      </c>
+      <c r="E17" s="15">
+        <v>10.82</v>
+      </c>
+      <c r="F17" s="15">
+        <v>7.8</v>
+      </c>
+      <c r="G17" s="15">
+        <v>52.6</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0.1002</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0.1067</v>
+      </c>
+      <c r="E18" s="17">
+        <v>11.5</v>
+      </c>
+      <c r="F18" s="17">
+        <v>7.66</v>
+      </c>
+      <c r="G18" s="17">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="16">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.1032</v>
+      </c>
+      <c r="E19" s="15">
+        <v>11.38</v>
+      </c>
+      <c r="F19" s="15">
+        <v>7.8</v>
+      </c>
+      <c r="G19" s="15">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -72358,15 +72595,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9973b7cd-78b1-41ec-8b66-6143e90e5574" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72631,21 +72865,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9973b7cd-78b1-41ec-8b66-6143e90e5574" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D6E3B29-6441-466D-950A-CE8D2F0401D8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC21C0BF-6CEF-427E-B508-C77C090066B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9973b7cd-78b1-41ec-8b66-6143e90e5574"/>
-    <ds:schemaRef ds:uri="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -72670,9 +72904,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC21C0BF-6CEF-427E-B508-C77C090066B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D6E3B29-6441-466D-950A-CE8D2F0401D8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9973b7cd-78b1-41ec-8b66-6143e90e5574"/>
+    <ds:schemaRef ds:uri="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Proyectos Evaluados/Tatara/Antecedentes PF - Tatara_V2.xlsx
+++ b/Proyectos Evaluados/Tatara/Antecedentes PF - Tatara_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephano Chaura\Desktop\ejecucion-modelos\Proyectos Evaluados\Tatara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17023B62-BB41-4F30-AD73-AA67444526B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88E5C41-1762-4C47-A011-00D99E8AFCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="2" activeTab="4" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="2" activeTab="2" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Caso BESS" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="71">
   <si>
     <t>Nodo de Referencia (DNV)</t>
   </si>
@@ -408,7 +408,21 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>, BESS 30 MW 90 MWh  (3 hrs)</t>
+      <t>, BESS 30 MW 120 MWh  (4 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PV 33 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 150 MWh  (5 hrs)</t>
     </r>
   </si>
 </sst>
@@ -700,6 +714,12 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="10" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -726,12 +746,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1099,12 +1113,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1121,7 +1135,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1135,7 +1149,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1147,7 +1161,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
@@ -1159,7 +1173,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1171,7 +1185,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1185,7 +1199,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1197,7 +1211,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1223,7 +1237,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1237,7 +1251,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1249,7 +1263,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1261,7 +1275,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
@@ -1273,7 +1287,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1287,7 +1301,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1299,7 +1313,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1311,7 +1325,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1323,7 +1337,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1335,7 +1349,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1347,7 +1361,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
@@ -1359,7 +1373,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1371,7 +1385,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1385,7 +1399,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="3" t="s">
         <v>30</v>
       </c>
@@ -1398,7 +1412,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="3" t="s">
         <v>31</v>
       </c>
@@ -1439,12 +1453,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1461,7 +1475,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1475,7 +1489,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1487,7 +1501,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
@@ -1499,7 +1513,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1511,7 +1525,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1525,7 +1539,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1537,7 +1551,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1563,7 +1577,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1575,7 +1589,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1585,7 +1599,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1595,7 +1609,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
@@ -1605,7 +1619,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1619,7 +1633,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1631,7 +1645,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1643,7 +1657,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1655,7 +1669,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1667,7 +1681,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1679,7 +1693,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
@@ -1691,7 +1705,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1703,7 +1717,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1717,7 +1731,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="3" t="s">
         <v>30</v>
       </c>
@@ -1730,7 +1744,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="3" t="s">
         <v>31</v>
       </c>
@@ -1758,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD17015-A551-4C2B-85B3-9418ADFEA835}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,12 +1785,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1793,7 +1807,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1807,7 +1821,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1819,7 +1833,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
@@ -1834,7 +1848,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1846,7 +1860,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1860,7 +1874,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1872,7 +1886,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1898,7 +1912,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1912,7 +1926,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1924,7 +1938,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1936,7 +1950,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
@@ -1948,7 +1962,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1962,7 +1976,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1974,7 +1988,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1987,7 +2001,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1999,7 +2013,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
@@ -2011,7 +2025,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
@@ -2023,7 +2037,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2035,7 +2049,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -2047,7 +2061,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2061,7 +2075,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="3" t="s">
         <v>30</v>
       </c>
@@ -2074,7 +2088,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="3" t="s">
         <v>31</v>
       </c>
@@ -72216,8 +72230,8 @@
   </sheetPr>
   <dimension ref="B2:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72570,7 +72584,7 @@
       <c r="G20" s="17"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="24" t="s">
         <v>69</v>
       </c>
       <c r="C21" s="16"/>
@@ -72580,8 +72594,8 @@
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="34" t="s">
-        <v>69</v>
+      <c r="B22" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -72604,6 +72618,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9973b7cd-78b1-41ec-8b66-6143e90e5574" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DDFFB1C384AD0D449AD4E90194E61AC8" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a27fb05d60a08da7ae088f3f301ad3c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b9b9037-28f8-4200-a961-13fb81bc61ed" xmlns:ns3="9973b7cd-78b1-41ec-8b66-6143e90e5574" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2dbfc82655d1d9f1e7c6c1a0c8843bc" ns2:_="" ns3:_="">
     <xsd:import namespace="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
@@ -72864,18 +72890,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9973b7cd-78b1-41ec-8b66-6143e90e5574" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC21C0BF-6CEF-427E-B508-C77C090066B7}">
   <ds:schemaRefs>
@@ -72885,6 +72899,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D6E3B29-6441-466D-950A-CE8D2F0401D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9973b7cd-78b1-41ec-8b66-6143e90e5574"/>
+    <ds:schemaRef ds:uri="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B5310A-16CC-480B-BDC5-BE63B31AAC2F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -72901,15 +72926,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D6E3B29-6441-466D-950A-CE8D2F0401D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9973b7cd-78b1-41ec-8b66-6143e90e5574"/>
-    <ds:schemaRef ds:uri="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Proyectos Evaluados/Tatara/Antecedentes PF - Tatara_V2.xlsx
+++ b/Proyectos Evaluados/Tatara/Antecedentes PF - Tatara_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephano Chaura\Desktop\ejecucion-modelos\Proyectos Evaluados\Tatara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88E5C41-1762-4C47-A011-00D99E8AFCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA18730-3E83-4E83-A619-BC922BE7C86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="2" activeTab="2" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
   </bookViews>
@@ -1773,7 +1773,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72231,7 +72231,7 @@
   <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72577,11 +72577,21 @@
       <c r="B20" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="C20" s="18">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0.09</v>
+      </c>
+      <c r="E20" s="17">
+        <v>5.86</v>
+      </c>
+      <c r="F20" s="17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G20" s="17">
+        <v>59.6</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
@@ -72609,27 +72619,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9973b7cd-78b1-41ec-8b66-6143e90e5574" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DDFFB1C384AD0D449AD4E90194E61AC8" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a27fb05d60a08da7ae088f3f301ad3c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b9b9037-28f8-4200-a961-13fb81bc61ed" xmlns:ns3="9973b7cd-78b1-41ec-8b66-6143e90e5574" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2dbfc82655d1d9f1e7c6c1a0c8843bc" ns2:_="" ns3:_="">
     <xsd:import namespace="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
@@ -72890,10 +72879,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9973b7cd-78b1-41ec-8b66-6143e90e5574" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC21C0BF-6CEF-427E-B508-C77C090066B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B5310A-16CC-480B-BDC5-BE63B31AAC2F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
+    <ds:schemaRef ds:uri="9973b7cd-78b1-41ec-8b66-6143e90e5574"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -72910,20 +72931,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B5310A-16CC-480B-BDC5-BE63B31AAC2F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC21C0BF-6CEF-427E-B508-C77C090066B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
-    <ds:schemaRef ds:uri="9973b7cd-78b1-41ec-8b66-6143e90e5574"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>